--- a/GolfGameplay.xlsx
+++ b/GolfGameplay.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HASEE\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GameDev\LapuGolf_HWversion\LapuGolfGame\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B66472F-5354-47CF-BDE7-F87D102DEE82}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9ABA464-7364-46C7-8A94-771A6E163B5D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{FC7F7765-8BE6-4D69-A066-BDA2ED6D4F61}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="106">
   <si>
     <t>There are 3 factors affect balls' movement</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -162,10 +162,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>Rules：</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>There is a time limit for this game type. Countdown: 3mins(TBD)</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -294,10 +290,6 @@
   </si>
   <si>
     <t>Players need to solve puzzles to make their way to the Goal point</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Some puzzle levels require multiple players' cooperation.</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -354,10 +346,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>Active and Get to the goal point</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>Connect to objects</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -383,10 +371,6 @@
   </si>
   <si>
     <t>(if there is only one player,must multiplayer type won't be included in ranom level library)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Co-op level（must multiplayer）</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -625,12 +609,16 @@
     <t>Balls can only be hit when they are idle</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
+  <si>
+    <t>delete</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -698,6 +686,13 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="8">
     <fill>
@@ -738,7 +733,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.34998626667073579"/>
+        <fgColor theme="1" tint="4.9989318521683403E-2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -812,7 +807,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -852,6 +847,21 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -870,31 +880,19 @@
     <xf numFmtId="0" fontId="6" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -921,13 +919,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>119</xdr:row>
+      <xdr:row>111</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>19051</xdr:colOff>
-      <xdr:row>128</xdr:row>
+      <xdr:row>120</xdr:row>
       <xdr:rowOff>84709</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1009,13 +1007,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>132</xdr:row>
+      <xdr:row>124</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>158115</xdr:colOff>
-      <xdr:row>140</xdr:row>
+      <xdr:row>132</xdr:row>
       <xdr:rowOff>144780</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1053,13 +1051,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>276225</xdr:colOff>
-      <xdr:row>132</xdr:row>
+      <xdr:row>124</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>491490</xdr:colOff>
-      <xdr:row>140</xdr:row>
+      <xdr:row>132</xdr:row>
       <xdr:rowOff>153670</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1097,13 +1095,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>598805</xdr:colOff>
-      <xdr:row>132</xdr:row>
+      <xdr:row>124</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>761365</xdr:colOff>
-      <xdr:row>140</xdr:row>
+      <xdr:row>132</xdr:row>
       <xdr:rowOff>154940</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1141,13 +1139,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>143</xdr:row>
+      <xdr:row>135</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>381635</xdr:colOff>
-      <xdr:row>155</xdr:row>
+      <xdr:row>147</xdr:row>
       <xdr:rowOff>160020</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1635,10 +1633,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9457EDA5-F94C-4C95-8F8A-DB5E284B25F2}">
-  <dimension ref="A3:S162"/>
+  <dimension ref="A3:S154"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+    <sheetView tabSelected="1" topLeftCell="A91" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H106" sqref="H106"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="16.5" x14ac:dyDescent="0.2"/>
@@ -1700,7 +1698,7 @@
         <v>9</v>
       </c>
       <c r="M10" s="8" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.2">
@@ -1708,10 +1706,10 @@
         <v>2</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="G12" s="8" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.2">
@@ -1719,7 +1717,7 @@
         <v>3</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
     </row>
     <row r="17" spans="1:19" x14ac:dyDescent="0.2">
@@ -1735,7 +1733,7 @@
         <v>1</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="21" spans="1:19" x14ac:dyDescent="0.2">
@@ -1771,440 +1769,440 @@
     </row>
     <row r="28" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C28" s="3" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
     </row>
     <row r="29" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="C29" s="16" t="s">
-        <v>37</v>
-      </c>
-      <c r="D29" s="17"/>
-      <c r="E29" s="18"/>
+      <c r="C29" s="21" t="s">
+        <v>36</v>
+      </c>
+      <c r="D29" s="22"/>
+      <c r="E29" s="23"/>
       <c r="F29" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="G29" s="24" t="s">
+      <c r="G29" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="H29" s="25"/>
-      <c r="I29" s="25"/>
-      <c r="J29" s="25"/>
-      <c r="K29" s="25"/>
-      <c r="L29" s="25"/>
-      <c r="M29" s="25"/>
-      <c r="N29" s="25"/>
-      <c r="O29" s="25"/>
-      <c r="P29" s="25"/>
-      <c r="Q29" s="25"/>
-      <c r="R29" s="19" t="s">
-        <v>56</v>
-      </c>
-      <c r="S29" s="20"/>
+      <c r="H29" s="17"/>
+      <c r="I29" s="17"/>
+      <c r="J29" s="17"/>
+      <c r="K29" s="17"/>
+      <c r="L29" s="17"/>
+      <c r="M29" s="17"/>
+      <c r="N29" s="17"/>
+      <c r="O29" s="17"/>
+      <c r="P29" s="17"/>
+      <c r="Q29" s="17"/>
+      <c r="R29" s="25" t="s">
+        <v>55</v>
+      </c>
+      <c r="S29" s="26"/>
     </row>
     <row r="30" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="C30" s="13" t="s">
-        <v>45</v>
-      </c>
-      <c r="D30" s="14"/>
-      <c r="E30" s="15"/>
+      <c r="C30" s="18" t="s">
+        <v>44</v>
+      </c>
+      <c r="D30" s="19"/>
+      <c r="E30" s="20"/>
       <c r="F30" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="G30" s="26" t="s">
-        <v>85</v>
-      </c>
-      <c r="H30" s="27"/>
-      <c r="I30" s="27"/>
-      <c r="J30" s="27"/>
-      <c r="K30" s="27"/>
-      <c r="L30" s="27"/>
-      <c r="M30" s="27"/>
-      <c r="N30" s="27"/>
-      <c r="O30" s="27"/>
-      <c r="P30" s="27"/>
-      <c r="Q30" s="27"/>
-      <c r="R30" s="21" t="s">
+      <c r="G30" s="14" t="s">
         <v>81</v>
       </c>
-      <c r="S30" s="22"/>
+      <c r="H30" s="15"/>
+      <c r="I30" s="15"/>
+      <c r="J30" s="15"/>
+      <c r="K30" s="15"/>
+      <c r="L30" s="15"/>
+      <c r="M30" s="15"/>
+      <c r="N30" s="15"/>
+      <c r="O30" s="15"/>
+      <c r="P30" s="15"/>
+      <c r="Q30" s="15"/>
+      <c r="R30" s="27" t="s">
+        <v>77</v>
+      </c>
+      <c r="S30" s="28"/>
     </row>
     <row r="31" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="C31" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="D31" s="14"/>
-      <c r="E31" s="15"/>
+      <c r="C31" s="18" t="s">
+        <v>33</v>
+      </c>
+      <c r="D31" s="19"/>
+      <c r="E31" s="20"/>
       <c r="F31" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="G31" s="26" t="s">
+      <c r="G31" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="H31" s="15"/>
+      <c r="I31" s="15"/>
+      <c r="J31" s="15"/>
+      <c r="K31" s="15"/>
+      <c r="L31" s="15"/>
+      <c r="M31" s="15"/>
+      <c r="N31" s="15"/>
+      <c r="O31" s="15"/>
+      <c r="P31" s="15"/>
+      <c r="Q31" s="15"/>
+      <c r="R31" s="27" t="s">
+        <v>77</v>
+      </c>
+      <c r="S31" s="28"/>
+    </row>
+    <row r="32" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="C32" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="H31" s="27"/>
-      <c r="I31" s="27"/>
-      <c r="J31" s="27"/>
-      <c r="K31" s="27"/>
-      <c r="L31" s="27"/>
-      <c r="M31" s="27"/>
-      <c r="N31" s="27"/>
-      <c r="O31" s="27"/>
-      <c r="P31" s="27"/>
-      <c r="Q31" s="27"/>
-      <c r="R31" s="21" t="s">
-        <v>81</v>
-      </c>
-      <c r="S31" s="22"/>
-    </row>
-    <row r="32" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="C32" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="D32" s="14"/>
-      <c r="E32" s="15"/>
+      <c r="D32" s="19"/>
+      <c r="E32" s="20"/>
       <c r="F32" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="G32" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="H32" s="15"/>
+      <c r="I32" s="15"/>
+      <c r="J32" s="15"/>
+      <c r="K32" s="15"/>
+      <c r="L32" s="15"/>
+      <c r="M32" s="15"/>
+      <c r="N32" s="15"/>
+      <c r="O32" s="15"/>
+      <c r="P32" s="15"/>
+      <c r="Q32" s="15"/>
+      <c r="R32" s="27" t="s">
+        <v>84</v>
+      </c>
+      <c r="S32" s="28"/>
+    </row>
+    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="C33" s="18" t="s">
+        <v>37</v>
+      </c>
+      <c r="D33" s="19"/>
+      <c r="E33" s="20"/>
+      <c r="F33" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="G33" s="14" t="s">
+        <v>71</v>
+      </c>
+      <c r="H33" s="15"/>
+      <c r="I33" s="15"/>
+      <c r="J33" s="15"/>
+      <c r="K33" s="15"/>
+      <c r="L33" s="15"/>
+      <c r="M33" s="15"/>
+      <c r="N33" s="15"/>
+      <c r="O33" s="15"/>
+      <c r="P33" s="15"/>
+      <c r="Q33" s="15"/>
+      <c r="R33" s="27" t="s">
+        <v>84</v>
+      </c>
+      <c r="S33" s="28"/>
+    </row>
+    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="C34" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="D34" s="19"/>
+      <c r="E34" s="20"/>
+      <c r="F34" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="G34" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="H34" s="15"/>
+      <c r="I34" s="15"/>
+      <c r="J34" s="15"/>
+      <c r="K34" s="15"/>
+      <c r="L34" s="15"/>
+      <c r="M34" s="15"/>
+      <c r="N34" s="15"/>
+      <c r="O34" s="15"/>
+      <c r="P34" s="15"/>
+      <c r="Q34" s="15"/>
+      <c r="R34" s="27" t="s">
+        <v>77</v>
+      </c>
+      <c r="S34" s="28"/>
+    </row>
+    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="C35" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="G32" s="26" t="s">
-        <v>36</v>
-      </c>
-      <c r="H32" s="27"/>
-      <c r="I32" s="27"/>
-      <c r="J32" s="27"/>
-      <c r="K32" s="27"/>
-      <c r="L32" s="27"/>
-      <c r="M32" s="27"/>
-      <c r="N32" s="27"/>
-      <c r="O32" s="27"/>
-      <c r="P32" s="27"/>
-      <c r="Q32" s="27"/>
-      <c r="R32" s="21" t="s">
-        <v>88</v>
-      </c>
-      <c r="S32" s="22"/>
-    </row>
-    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="C33" s="13" t="s">
-        <v>38</v>
-      </c>
-      <c r="D33" s="14"/>
-      <c r="E33" s="15"/>
-      <c r="F33" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="G33" s="26" t="s">
-        <v>74</v>
-      </c>
-      <c r="H33" s="27"/>
-      <c r="I33" s="27"/>
-      <c r="J33" s="27"/>
-      <c r="K33" s="27"/>
-      <c r="L33" s="27"/>
-      <c r="M33" s="27"/>
-      <c r="N33" s="27"/>
-      <c r="O33" s="27"/>
-      <c r="P33" s="27"/>
-      <c r="Q33" s="27"/>
-      <c r="R33" s="21" t="s">
-        <v>88</v>
-      </c>
-      <c r="S33" s="22"/>
-    </row>
-    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="C34" s="13" t="s">
-        <v>39</v>
-      </c>
-      <c r="D34" s="14"/>
-      <c r="E34" s="15"/>
-      <c r="F34" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="G34" s="26" t="s">
-        <v>39</v>
-      </c>
-      <c r="H34" s="27"/>
-      <c r="I34" s="27"/>
-      <c r="J34" s="27"/>
-      <c r="K34" s="27"/>
-      <c r="L34" s="27"/>
-      <c r="M34" s="27"/>
-      <c r="N34" s="27"/>
-      <c r="O34" s="27"/>
-      <c r="P34" s="27"/>
-      <c r="Q34" s="27"/>
-      <c r="R34" s="21" t="s">
-        <v>81</v>
-      </c>
-      <c r="S34" s="22"/>
-    </row>
-    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="C35" s="13" t="s">
+      <c r="D35" s="19"/>
+      <c r="E35" s="20"/>
+      <c r="F35" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="D35" s="14"/>
-      <c r="E35" s="15"/>
-      <c r="F35" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="G35" s="26" t="s">
-        <v>55</v>
-      </c>
-      <c r="H35" s="27"/>
-      <c r="I35" s="27"/>
-      <c r="J35" s="27"/>
-      <c r="K35" s="27"/>
-      <c r="L35" s="27"/>
-      <c r="M35" s="27"/>
-      <c r="N35" s="27"/>
-      <c r="O35" s="27"/>
-      <c r="P35" s="27"/>
-      <c r="Q35" s="27"/>
-      <c r="R35" s="21" t="s">
-        <v>79</v>
-      </c>
-      <c r="S35" s="22"/>
+      <c r="G35" s="14" t="s">
+        <v>54</v>
+      </c>
+      <c r="H35" s="15"/>
+      <c r="I35" s="15"/>
+      <c r="J35" s="15"/>
+      <c r="K35" s="15"/>
+      <c r="L35" s="15"/>
+      <c r="M35" s="15"/>
+      <c r="N35" s="15"/>
+      <c r="O35" s="15"/>
+      <c r="P35" s="15"/>
+      <c r="Q35" s="15"/>
+      <c r="R35" s="27" t="s">
+        <v>75</v>
+      </c>
+      <c r="S35" s="28"/>
     </row>
     <row r="36" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="C36" s="13" t="s">
+      <c r="C36" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="D36" s="14"/>
-      <c r="E36" s="15"/>
+      <c r="D36" s="19"/>
+      <c r="E36" s="20"/>
       <c r="F36" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="G36" s="26" t="s">
+      <c r="G36" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="H36" s="27"/>
-      <c r="I36" s="27"/>
-      <c r="J36" s="27"/>
-      <c r="K36" s="27"/>
-      <c r="L36" s="27"/>
-      <c r="M36" s="27"/>
-      <c r="N36" s="27"/>
-      <c r="O36" s="27"/>
-      <c r="P36" s="27"/>
-      <c r="Q36" s="27"/>
-      <c r="R36" s="21" t="s">
-        <v>64</v>
-      </c>
-      <c r="S36" s="22"/>
+      <c r="H36" s="15"/>
+      <c r="I36" s="15"/>
+      <c r="J36" s="15"/>
+      <c r="K36" s="15"/>
+      <c r="L36" s="15"/>
+      <c r="M36" s="15"/>
+      <c r="N36" s="15"/>
+      <c r="O36" s="15"/>
+      <c r="P36" s="15"/>
+      <c r="Q36" s="15"/>
+      <c r="R36" s="27" t="s">
+        <v>62</v>
+      </c>
+      <c r="S36" s="28"/>
     </row>
     <row r="37" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="C37" s="13" t="s">
+      <c r="C37" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="D37" s="14"/>
-      <c r="E37" s="15"/>
+      <c r="D37" s="19"/>
+      <c r="E37" s="20"/>
       <c r="F37" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="G37" s="26" t="s">
-        <v>75</v>
-      </c>
-      <c r="H37" s="27"/>
-      <c r="I37" s="27"/>
-      <c r="J37" s="27"/>
-      <c r="K37" s="27"/>
-      <c r="L37" s="27"/>
-      <c r="M37" s="27"/>
-      <c r="N37" s="27"/>
-      <c r="O37" s="27"/>
-      <c r="P37" s="27"/>
-      <c r="Q37" s="27"/>
-      <c r="R37" s="21" t="s">
-        <v>66</v>
-      </c>
-      <c r="S37" s="22"/>
+      <c r="G37" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="H37" s="15"/>
+      <c r="I37" s="15"/>
+      <c r="J37" s="15"/>
+      <c r="K37" s="15"/>
+      <c r="L37" s="15"/>
+      <c r="M37" s="15"/>
+      <c r="N37" s="15"/>
+      <c r="O37" s="15"/>
+      <c r="P37" s="15"/>
+      <c r="Q37" s="15"/>
+      <c r="R37" s="27" t="s">
+        <v>64</v>
+      </c>
+      <c r="S37" s="28"/>
     </row>
     <row r="38" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="C38" s="23" t="s">
-        <v>43</v>
-      </c>
-      <c r="D38" s="23"/>
-      <c r="E38" s="23"/>
+      <c r="C38" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="D38" s="13"/>
+      <c r="E38" s="13"/>
       <c r="F38" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="G38" s="26" t="s">
-        <v>65</v>
-      </c>
-      <c r="H38" s="27"/>
-      <c r="I38" s="27"/>
-      <c r="J38" s="27"/>
-      <c r="K38" s="27"/>
-      <c r="L38" s="27"/>
-      <c r="M38" s="27"/>
-      <c r="N38" s="27"/>
-      <c r="O38" s="27"/>
-      <c r="P38" s="27"/>
-      <c r="Q38" s="27"/>
-      <c r="R38" s="21" t="s">
-        <v>64</v>
-      </c>
-      <c r="S38" s="22"/>
+      <c r="G38" s="14" t="s">
+        <v>63</v>
+      </c>
+      <c r="H38" s="15"/>
+      <c r="I38" s="15"/>
+      <c r="J38" s="15"/>
+      <c r="K38" s="15"/>
+      <c r="L38" s="15"/>
+      <c r="M38" s="15"/>
+      <c r="N38" s="15"/>
+      <c r="O38" s="15"/>
+      <c r="P38" s="15"/>
+      <c r="Q38" s="15"/>
+      <c r="R38" s="27" t="s">
+        <v>62</v>
+      </c>
+      <c r="S38" s="28"/>
     </row>
     <row r="39" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="C39" s="23" t="s">
-        <v>44</v>
-      </c>
-      <c r="D39" s="23"/>
-      <c r="E39" s="23"/>
+      <c r="C39" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="D39" s="13"/>
+      <c r="E39" s="13"/>
       <c r="F39" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="G39" s="26" t="s">
-        <v>54</v>
-      </c>
-      <c r="H39" s="27"/>
-      <c r="I39" s="27"/>
-      <c r="J39" s="27"/>
-      <c r="K39" s="27"/>
-      <c r="L39" s="27"/>
-      <c r="M39" s="27"/>
-      <c r="N39" s="27"/>
-      <c r="O39" s="27"/>
-      <c r="P39" s="27"/>
-      <c r="Q39" s="27"/>
-      <c r="R39" s="21" t="s">
-        <v>64</v>
-      </c>
-      <c r="S39" s="22"/>
+      <c r="G39" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="H39" s="15"/>
+      <c r="I39" s="15"/>
+      <c r="J39" s="15"/>
+      <c r="K39" s="15"/>
+      <c r="L39" s="15"/>
+      <c r="M39" s="15"/>
+      <c r="N39" s="15"/>
+      <c r="O39" s="15"/>
+      <c r="P39" s="15"/>
+      <c r="Q39" s="15"/>
+      <c r="R39" s="27" t="s">
+        <v>62</v>
+      </c>
+      <c r="S39" s="28"/>
     </row>
     <row r="40" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="C40" s="23" t="s">
+      <c r="C40" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="D40" s="13"/>
+      <c r="E40" s="13"/>
+      <c r="F40" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="G40" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="H40" s="15"/>
+      <c r="I40" s="15"/>
+      <c r="J40" s="15"/>
+      <c r="K40" s="15"/>
+      <c r="L40" s="15"/>
+      <c r="M40" s="15"/>
+      <c r="N40" s="15"/>
+      <c r="O40" s="15"/>
+      <c r="P40" s="15"/>
+      <c r="Q40" s="15"/>
+      <c r="R40" s="27" t="s">
+        <v>76</v>
+      </c>
+      <c r="S40" s="28"/>
+    </row>
+    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="C41" s="13" t="s">
         <v>47</v>
       </c>
-      <c r="D40" s="23"/>
-      <c r="E40" s="23"/>
-      <c r="F40" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="G40" s="26" t="s">
-        <v>46</v>
-      </c>
-      <c r="H40" s="27"/>
-      <c r="I40" s="27"/>
-      <c r="J40" s="27"/>
-      <c r="K40" s="27"/>
-      <c r="L40" s="27"/>
-      <c r="M40" s="27"/>
-      <c r="N40" s="27"/>
-      <c r="O40" s="27"/>
-      <c r="P40" s="27"/>
-      <c r="Q40" s="27"/>
-      <c r="R40" s="21" t="s">
-        <v>80</v>
-      </c>
-      <c r="S40" s="22"/>
-    </row>
-    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="C41" s="23" t="s">
+      <c r="D41" s="13"/>
+      <c r="E41" s="13"/>
+      <c r="F41" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="G41" s="14" t="s">
         <v>48</v>
       </c>
-      <c r="D41" s="23"/>
-      <c r="E41" s="23"/>
-      <c r="F41" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="G41" s="26" t="s">
-        <v>49</v>
-      </c>
-      <c r="H41" s="27"/>
-      <c r="I41" s="27"/>
-      <c r="J41" s="27"/>
-      <c r="K41" s="27"/>
-      <c r="L41" s="27"/>
-      <c r="M41" s="27"/>
-      <c r="N41" s="27"/>
-      <c r="O41" s="27"/>
-      <c r="P41" s="27"/>
-      <c r="Q41" s="27"/>
-      <c r="R41" s="21" t="s">
-        <v>58</v>
-      </c>
-      <c r="S41" s="22"/>
+      <c r="H41" s="15"/>
+      <c r="I41" s="15"/>
+      <c r="J41" s="15"/>
+      <c r="K41" s="15"/>
+      <c r="L41" s="15"/>
+      <c r="M41" s="15"/>
+      <c r="N41" s="15"/>
+      <c r="O41" s="15"/>
+      <c r="P41" s="15"/>
+      <c r="Q41" s="15"/>
+      <c r="R41" s="27" t="s">
+        <v>57</v>
+      </c>
+      <c r="S41" s="28"/>
     </row>
     <row r="42" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="C42" s="23" t="s">
-        <v>62</v>
-      </c>
-      <c r="D42" s="23"/>
-      <c r="E42" s="23"/>
+      <c r="C42" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="D42" s="13"/>
+      <c r="E42" s="13"/>
       <c r="F42" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="G42" s="26" t="s">
-        <v>49</v>
-      </c>
-      <c r="H42" s="27"/>
-      <c r="I42" s="27"/>
-      <c r="J42" s="27"/>
-      <c r="K42" s="27"/>
-      <c r="L42" s="27"/>
-      <c r="M42" s="27"/>
-      <c r="N42" s="27"/>
-      <c r="O42" s="27"/>
-      <c r="P42" s="27"/>
-      <c r="Q42" s="27"/>
-      <c r="R42" s="21" t="s">
-        <v>61</v>
-      </c>
-      <c r="S42" s="22"/>
+        <v>39</v>
+      </c>
+      <c r="G42" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="H42" s="15"/>
+      <c r="I42" s="15"/>
+      <c r="J42" s="15"/>
+      <c r="K42" s="15"/>
+      <c r="L42" s="15"/>
+      <c r="M42" s="15"/>
+      <c r="N42" s="15"/>
+      <c r="O42" s="15"/>
+      <c r="P42" s="15"/>
+      <c r="Q42" s="15"/>
+      <c r="R42" s="27" t="s">
+        <v>59</v>
+      </c>
+      <c r="S42" s="28"/>
     </row>
     <row r="43" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="C43" s="23" t="s">
-        <v>70</v>
-      </c>
-      <c r="D43" s="23"/>
-      <c r="E43" s="23"/>
+      <c r="C43" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="D43" s="13"/>
+      <c r="E43" s="13"/>
       <c r="F43" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="G43" s="26" t="s">
-        <v>71</v>
-      </c>
-      <c r="H43" s="27"/>
-      <c r="I43" s="27"/>
-      <c r="J43" s="27"/>
-      <c r="K43" s="27"/>
-      <c r="L43" s="27"/>
-      <c r="M43" s="27"/>
-      <c r="N43" s="27"/>
-      <c r="O43" s="27"/>
-      <c r="P43" s="27"/>
-      <c r="Q43" s="27"/>
-      <c r="R43" s="21" t="s">
-        <v>72</v>
-      </c>
-      <c r="S43" s="22"/>
+        <v>39</v>
+      </c>
+      <c r="G43" s="14" t="s">
+        <v>68</v>
+      </c>
+      <c r="H43" s="15"/>
+      <c r="I43" s="15"/>
+      <c r="J43" s="15"/>
+      <c r="K43" s="15"/>
+      <c r="L43" s="15"/>
+      <c r="M43" s="15"/>
+      <c r="N43" s="15"/>
+      <c r="O43" s="15"/>
+      <c r="P43" s="15"/>
+      <c r="Q43" s="15"/>
+      <c r="R43" s="27" t="s">
+        <v>69</v>
+      </c>
+      <c r="S43" s="28"/>
     </row>
     <row r="44" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="C44" s="23" t="s">
-        <v>104</v>
-      </c>
-      <c r="D44" s="23"/>
-      <c r="E44" s="23"/>
+      <c r="C44" s="13" t="s">
+        <v>100</v>
+      </c>
+      <c r="D44" s="13"/>
+      <c r="E44" s="13"/>
       <c r="F44" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="G44" s="26" t="s">
-        <v>105</v>
-      </c>
-      <c r="H44" s="27"/>
-      <c r="I44" s="27"/>
-      <c r="J44" s="27"/>
-      <c r="K44" s="27"/>
-      <c r="L44" s="27"/>
-      <c r="M44" s="27"/>
-      <c r="N44" s="27"/>
-      <c r="O44" s="27"/>
-      <c r="P44" s="27"/>
-      <c r="Q44" s="27"/>
-      <c r="R44" s="21" t="s">
-        <v>106</v>
-      </c>
-      <c r="S44" s="22"/>
+        <v>39</v>
+      </c>
+      <c r="G44" s="14" t="s">
+        <v>101</v>
+      </c>
+      <c r="H44" s="15"/>
+      <c r="I44" s="15"/>
+      <c r="J44" s="15"/>
+      <c r="K44" s="15"/>
+      <c r="L44" s="15"/>
+      <c r="M44" s="15"/>
+      <c r="N44" s="15"/>
+      <c r="O44" s="15"/>
+      <c r="P44" s="15"/>
+      <c r="Q44" s="15"/>
+      <c r="R44" s="27" t="s">
+        <v>102</v>
+      </c>
+      <c r="S44" s="28"/>
     </row>
     <row r="45" spans="2:19" x14ac:dyDescent="0.2">
       <c r="G45" s="1"/>
@@ -2235,7 +2233,7 @@
         <v>4</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.2">
@@ -2243,7 +2241,7 @@
         <v>5</v>
       </c>
       <c r="C49" s="3" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.2">
@@ -2251,7 +2249,7 @@
         <v>6</v>
       </c>
       <c r="C51" s="3" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.2">
@@ -2267,12 +2265,12 @@
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B56" s="3" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B57" s="3" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.2">
@@ -2280,7 +2278,7 @@
         <v>0</v>
       </c>
       <c r="C59" s="3" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.2">
@@ -2290,7 +2288,7 @@
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C62" s="3" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.2">
@@ -2298,65 +2296,68 @@
         <v>5</v>
       </c>
     </row>
-    <row r="65" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C65" s="3">
         <v>1</v>
       </c>
       <c r="D65" s="3" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="68" spans="2:4" x14ac:dyDescent="0.2">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A68" s="24" t="s">
+        <v>105</v>
+      </c>
       <c r="B68" s="5">
         <v>1</v>
       </c>
       <c r="C68" s="3" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="70" spans="2:4" x14ac:dyDescent="0.2">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C70" s="3" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="71" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C71" s="3">
         <v>1</v>
       </c>
       <c r="D71" s="3" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="72" spans="2:4" x14ac:dyDescent="0.2">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C72" s="3">
         <v>2</v>
       </c>
       <c r="D72" s="3" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="73" spans="2:4" x14ac:dyDescent="0.2">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C73" s="3">
         <v>3</v>
       </c>
       <c r="D73" s="3" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="75" spans="2:4" x14ac:dyDescent="0.2">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C75" s="3" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="76" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C76" s="3">
         <v>1</v>
       </c>
       <c r="D76" s="3" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="77" spans="2:4" x14ac:dyDescent="0.2">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C77" s="10" t="s">
         <v>27</v>
       </c>
@@ -2364,243 +2365,204 @@
         <v>28</v>
       </c>
     </row>
-    <row r="78" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C78" s="10"/>
     </row>
-    <row r="80" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A80" s="24" t="s">
+        <v>105</v>
+      </c>
       <c r="B80" s="5">
         <v>2</v>
       </c>
       <c r="C80" s="3" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="82" spans="2:10" x14ac:dyDescent="0.2">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="82" spans="1:10" x14ac:dyDescent="0.2">
       <c r="C82" s="3" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="83" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:10" x14ac:dyDescent="0.2">
       <c r="C83" s="3">
         <v>1</v>
       </c>
       <c r="D83" s="3" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="84" spans="2:10" x14ac:dyDescent="0.2">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="84" spans="1:10" x14ac:dyDescent="0.2">
       <c r="C84" s="3">
         <v>2</v>
       </c>
       <c r="D84" s="3" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="J84" s="3" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="85" spans="2:10" x14ac:dyDescent="0.2">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="85" spans="1:10" x14ac:dyDescent="0.2">
       <c r="C85" s="3">
         <v>3</v>
       </c>
       <c r="D85" s="3" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="86" spans="2:10" x14ac:dyDescent="0.2">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="86" spans="1:10" x14ac:dyDescent="0.2">
       <c r="C86" s="3">
         <v>4</v>
       </c>
       <c r="D86" s="3" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="87" spans="2:10" x14ac:dyDescent="0.2">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="87" spans="1:10" x14ac:dyDescent="0.2">
       <c r="C87" s="3">
         <v>5</v>
       </c>
       <c r="D87" s="3" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="88" spans="2:10" x14ac:dyDescent="0.2">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="88" spans="1:10" x14ac:dyDescent="0.2">
       <c r="C88" s="3">
         <v>6</v>
       </c>
       <c r="D88" s="3" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="90" spans="2:10" x14ac:dyDescent="0.2">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="90" spans="1:10" x14ac:dyDescent="0.2">
       <c r="C90" s="3" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="91" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:10" x14ac:dyDescent="0.2">
       <c r="C91" s="3">
         <v>1</v>
       </c>
       <c r="D91" s="3" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="94" spans="2:10" x14ac:dyDescent="0.2">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="94" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A94" s="24" t="s">
+        <v>105</v>
+      </c>
       <c r="B94" s="5">
         <v>3</v>
       </c>
       <c r="C94" s="3" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="96" spans="2:10" x14ac:dyDescent="0.2">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="96" spans="1:10" x14ac:dyDescent="0.2">
       <c r="C96" s="3" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="97" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:10" x14ac:dyDescent="0.2">
       <c r="C97" s="3">
         <v>1</v>
       </c>
       <c r="D97" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="J97" s="3" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="98" spans="2:10" x14ac:dyDescent="0.2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="98" spans="1:10" x14ac:dyDescent="0.2">
       <c r="C98" s="3">
         <v>2</v>
       </c>
       <c r="D98" s="3" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="100" spans="2:10" x14ac:dyDescent="0.2">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="100" spans="1:10" x14ac:dyDescent="0.2">
       <c r="C100" s="3" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="101" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:10" x14ac:dyDescent="0.2">
       <c r="C101" s="3">
         <v>1</v>
       </c>
       <c r="D101" s="3" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="104" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B104" s="5">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="106" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A106" s="4">
         <v>4</v>
       </c>
-      <c r="C104" s="3" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="106" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="C106" s="3" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="107" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="D107" s="3" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="109" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="C109" s="3" t="s">
+      <c r="B106" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="108" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B108" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="110" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B110" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="115" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="G115" s="3" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="123" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B123" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="129" spans="10:10" x14ac:dyDescent="0.2">
+      <c r="J129" s="3" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="140" spans="10:10" x14ac:dyDescent="0.2">
+      <c r="J140" s="3" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="151" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A151" s="4">
         <v>5</v>
       </c>
-    </row>
-    <row r="110" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="C110" s="3">
-        <v>1</v>
-      </c>
-      <c r="D110" s="3" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="114" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A114" s="4">
-        <v>4</v>
-      </c>
-      <c r="B114" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="116" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B116" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="118" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B118" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="123" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="G123" s="3" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="131" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B131" s="3" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="137" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="J137" s="3" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="148" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="J148" s="3" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="159" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A159" s="4">
-        <v>5</v>
-      </c>
-      <c r="B159" s="3" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="161" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B161" s="3" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="162" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="C162" s="12" t="s">
-        <v>101</v>
+      <c r="B151" s="3" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="153" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B153" s="3" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="154" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C154" s="12" t="s">
+        <v>97</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="48">
-    <mergeCell ref="C43:E43"/>
-    <mergeCell ref="G43:Q43"/>
-    <mergeCell ref="R43:S43"/>
-    <mergeCell ref="C44:E44"/>
-    <mergeCell ref="G44:Q44"/>
-    <mergeCell ref="R44:S44"/>
-    <mergeCell ref="R41:S41"/>
-    <mergeCell ref="G42:Q42"/>
-    <mergeCell ref="C42:E42"/>
-    <mergeCell ref="R42:S42"/>
-    <mergeCell ref="G41:Q41"/>
-    <mergeCell ref="R33:S33"/>
-    <mergeCell ref="R34:S34"/>
-    <mergeCell ref="R35:S35"/>
-    <mergeCell ref="R36:S36"/>
-    <mergeCell ref="R37:S37"/>
-    <mergeCell ref="R38:S38"/>
-    <mergeCell ref="G37:Q37"/>
-    <mergeCell ref="G38:Q38"/>
-    <mergeCell ref="G39:Q39"/>
-    <mergeCell ref="G40:Q40"/>
-    <mergeCell ref="R39:S39"/>
-    <mergeCell ref="R40:S40"/>
+    <mergeCell ref="C34:E34"/>
+    <mergeCell ref="C35:E35"/>
+    <mergeCell ref="C36:E36"/>
+    <mergeCell ref="C37:E37"/>
+    <mergeCell ref="C29:E29"/>
+    <mergeCell ref="C30:E30"/>
+    <mergeCell ref="C31:E31"/>
+    <mergeCell ref="C32:E32"/>
+    <mergeCell ref="C33:E33"/>
     <mergeCell ref="R29:S29"/>
     <mergeCell ref="R30:S30"/>
     <mergeCell ref="R31:S31"/>
@@ -2617,19 +2579,33 @@
     <mergeCell ref="C38:E38"/>
     <mergeCell ref="C40:E40"/>
     <mergeCell ref="C39:E39"/>
-    <mergeCell ref="C34:E34"/>
-    <mergeCell ref="C35:E35"/>
-    <mergeCell ref="C36:E36"/>
-    <mergeCell ref="C37:E37"/>
-    <mergeCell ref="C29:E29"/>
-    <mergeCell ref="C30:E30"/>
-    <mergeCell ref="C31:E31"/>
-    <mergeCell ref="C32:E32"/>
-    <mergeCell ref="C33:E33"/>
+    <mergeCell ref="R38:S38"/>
+    <mergeCell ref="G37:Q37"/>
+    <mergeCell ref="G38:Q38"/>
+    <mergeCell ref="G39:Q39"/>
+    <mergeCell ref="G40:Q40"/>
+    <mergeCell ref="R39:S39"/>
+    <mergeCell ref="R40:S40"/>
+    <mergeCell ref="R33:S33"/>
+    <mergeCell ref="R34:S34"/>
+    <mergeCell ref="R35:S35"/>
+    <mergeCell ref="R36:S36"/>
+    <mergeCell ref="R37:S37"/>
+    <mergeCell ref="R41:S41"/>
+    <mergeCell ref="G42:Q42"/>
+    <mergeCell ref="C42:E42"/>
+    <mergeCell ref="R42:S42"/>
+    <mergeCell ref="G41:Q41"/>
+    <mergeCell ref="C43:E43"/>
+    <mergeCell ref="G43:Q43"/>
+    <mergeCell ref="R43:S43"/>
+    <mergeCell ref="C44:E44"/>
+    <mergeCell ref="G44:Q44"/>
+    <mergeCell ref="R44:S44"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C162" r:id="rId1" xr:uid="{B3A0C7DA-F376-40D8-8B6A-64B5EAC24330}"/>
+    <hyperlink ref="C154" r:id="rId1" xr:uid="{B3A0C7DA-F376-40D8-8B6A-64B5EAC24330}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
